--- a/ORG_FACTORY.xlsx
+++ b/ORG_FACTORY.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C189A63E-E82D-48CA-9E60-0C48B1C37D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60031F65-02B5-41C5-AA92-C3B193E48C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>ORG_FAC_PK</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>รภท.</t>
+  </si>
+  <si>
+    <t>ORG_FAC_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_FAC_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_FAC_STATUS</t>
   </si>
 </sst>
 </file>
@@ -406,18 +415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A2:C12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="35.36328125" customWidth="1"/>
+    <col min="1" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="11" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +438,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43501</v>
       </c>
@@ -439,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43502</v>
       </c>
@@ -450,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43503</v>
       </c>
@@ -461,7 +481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43504</v>
       </c>
@@ -472,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43505</v>
       </c>
@@ -483,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43506</v>
       </c>
@@ -494,7 +514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43507</v>
       </c>
@@ -505,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43508</v>
       </c>
@@ -516,7 +536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43509</v>
       </c>
@@ -527,7 +547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43510</v>
       </c>
@@ -538,7 +558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43511</v>
       </c>

--- a/ORG_FACTORY.xlsx
+++ b/ORG_FACTORY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60031F65-02B5-41C5-AA92-C3B193E48C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D35B0A9-F6E0-4270-AE3E-AB4326F15F31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
-    <t>ORG_FAC_PK</t>
-  </si>
-  <si>
-    <t>ORG_FAC_NAME</t>
-  </si>
-  <si>
-    <t>ORG_FAC_ABBR_NAME</t>
-  </si>
-  <si>
     <t>โรงงานสื่อสาร</t>
   </si>
   <si>
@@ -88,13 +79,22 @@
     <t>รภท.</t>
   </si>
   <si>
-    <t>ORG_FAC_IDENOLD</t>
-  </si>
-  <si>
-    <t>ORG_FAC_IDENNEW</t>
-  </si>
-  <si>
-    <t>ORG_FAC_STATUS</t>
+    <t>ORG_FACT_PK</t>
+  </si>
+  <si>
+    <t>ORG_FACT_NAME</t>
+  </si>
+  <si>
+    <t>ORG_FACT_ABBR_NAME</t>
+  </si>
+  <si>
+    <t>ORG_FACT_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_FACT_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_FACT_STATUS</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,13 +430,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -453,10 +453,10 @@
         <v>43501</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,10 +464,10 @@
         <v>43502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -475,10 +475,10 @@
         <v>43503</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,10 +486,10 @@
         <v>43504</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,10 +497,10 @@
         <v>43505</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,10 +508,10 @@
         <v>43506</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,10 +519,10 @@
         <v>43507</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -530,10 +530,10 @@
         <v>43508</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -541,10 +541,10 @@
         <v>43509</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,10 +552,10 @@
         <v>43510</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,10 +563,10 @@
         <v>43511</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
